--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:51:15</t>
+          <t>12:07:46</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>Lingeshwer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>guru</t>
+          <t>sanjit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,7 +522,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sanjit</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lingeshwer</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>guru</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:07:46</t>
+          <t>13:05:34</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lingeshwer</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,10 +494,14 @@
           <t>2025-10-17</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Absent</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13:05:34</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Present</t>
         </is>
       </c>
     </row>
@@ -522,7 +526,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -540,7 +544,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +562,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,7 +580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -594,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +616,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>guru</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -630,7 +634,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +652,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>guru</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -666,7 +670,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -684,7 +688,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>Lingeshwer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -702,7 +706,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:05:34</t>
+          <t>13:10:49</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:05:34</t>
+          <t>13:10:49</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sanjit</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -634,7 +634,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>sanjit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lingeshwer</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>Lingeshwer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:10:49</t>
+          <t>23:16:22</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,14 +494,10 @@
           <t>2025-10-17</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13:10:49</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Present</t>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Absent</t>
         </is>
       </c>
     </row>
@@ -526,7 +522,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -544,7 +540,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -562,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -580,7 +576,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,7 +594,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -652,7 +648,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -670,7 +666,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23:16:22</t>
+          <t>23:37:19</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,7 +522,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>sanjit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>guru</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sanjit</t>
+          <t>Lingeshwer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>guru</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lingeshwer</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -469,12 +469,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23:37:19</t>
+          <t>20:32:49</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -486,12 +486,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -504,12 +504,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>Lingeshwer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -522,12 +522,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -540,12 +540,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -558,12 +558,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>sanjit</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -576,12 +576,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sanjit</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -594,12 +594,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -612,12 +612,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lingeshwer</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -648,12 +648,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>guru</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -666,12 +666,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -684,12 +684,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -702,12 +702,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>guru</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -469,12 +469,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:32:49</t>
+          <t>17:57:47</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -504,12 +504,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lingeshwer</t>
+          <t>guru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -522,12 +522,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>sanjit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -540,12 +540,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -558,12 +558,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sanjit</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -576,12 +576,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -594,12 +594,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>Lingeshwer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -612,12 +612,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -630,12 +630,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -648,12 +648,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -666,12 +666,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -684,12 +684,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -702,12 +702,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>guru</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>

--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -474,7 +474,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:57:47</t>
+          <t>18:37:08</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pradeep</t>
+          <t>Sathish R</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>guru</t>
+          <t>pradeep</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -522,7 +522,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sanjit</t>
+          <t>manibalagan</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RAGUL</t>
+          <t>sanjit</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rishi</t>
+          <t>daithya</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sathish R</t>
+          <t>vishal</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lingeshwer</t>
+          <t>Rishi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>daithya</t>
+          <t>guru</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Maruthu</t>
+          <t>Mano</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mano</t>
+          <t>Maruthu</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>manibalagan</t>
+          <t>RAGUL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>vishal</t>
+          <t>bhuvan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bhuvan</t>
+          <t>Lingeshwer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
